--- a/ch7/rang.xlsx
+++ b/ch7/rang.xlsx
@@ -443,10 +443,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>96</v>
+        <v>34</v>
       </c>
       <c r="C2" t="n">
-        <v>19</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3">
@@ -454,10 +454,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="C3" t="n">
-        <v>68</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4">
@@ -465,10 +465,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="C4" t="n">
-        <v>16</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5">
@@ -476,10 +476,10 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>88</v>
+        <v>23</v>
       </c>
       <c r="C5" t="n">
-        <v>131</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6">
@@ -487,10 +487,10 @@
         <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C6" t="n">
-        <v>95</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7">
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="B7" t="n">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="C7" t="n">
-        <v>140</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8">
@@ -509,10 +509,10 @@
         <v>1</v>
       </c>
       <c r="B8" t="n">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="C8" t="n">
-        <v>148</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9">
@@ -520,10 +520,10 @@
         <v>1</v>
       </c>
       <c r="B9" t="n">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="C9" t="n">
-        <v>51</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10">
@@ -531,10 +531,10 @@
         <v>1</v>
       </c>
       <c r="B10" t="n">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="C10" t="n">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11">
@@ -542,10 +542,10 @@
         <v>1</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C11" t="n">
-        <v>100</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
